--- a/Tests.xlsx
+++ b/Tests.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Desktop/R_TaxProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8717449E-8869-3346-A4EB-F65984AF4C66}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7740362E-6C47-914B-A9CA-D0281BB0438B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19900" yWindow="3940" windowWidth="30380" windowHeight="18680" xr2:uid="{3006BEA8-C5A1-5242-93AC-D1E8609A8B5E}"/>
+    <workbookView xWindow="19900" yWindow="3940" windowWidth="30380" windowHeight="18680" activeTab="1" xr2:uid="{3006BEA8-C5A1-5242-93AC-D1E8609A8B5E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Exemption" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,6 +24,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>AGI</t>
   </si>
@@ -72,13 +74,61 @@
   </si>
   <si>
     <t>Premium_Limit</t>
+  </si>
+  <si>
+    <t>LOWER_AMT</t>
+  </si>
+  <si>
+    <t>UPPER_AMT</t>
+  </si>
+  <si>
+    <t>SINGLE</t>
+  </si>
+  <si>
+    <t>MFJ/QW</t>
+  </si>
+  <si>
+    <t>MFS</t>
+  </si>
+  <si>
+    <t>HOH</t>
+  </si>
+  <si>
+    <t>num</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Total Exemp</t>
+  </si>
+  <si>
+    <t>enter amount</t>
+  </si>
+  <si>
+    <t>lowerAGI</t>
+  </si>
+  <si>
+    <t>Line 5</t>
+  </si>
+  <si>
+    <t>Line 6</t>
+  </si>
+  <si>
+    <t>line 7</t>
+  </si>
+  <si>
+    <t>line 8</t>
+  </si>
+  <si>
+    <t>line 9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -86,8 +136,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -97,6 +153,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -122,10 +184,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -442,13 +507,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73D1E3C6-1C51-FE40-BBFA-375C01E50C0F}">
   <dimension ref="A4:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="B4">
         <v>2017</v>
       </c>
@@ -456,7 +521,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -468,7 +533,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -481,7 +546,7 @@
         <v>7500</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -493,7 +558,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -506,7 +571,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -518,7 +583,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -530,7 +595,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -542,7 +607,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -554,7 +619,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -566,7 +631,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -578,12 +643,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -592,7 +657,7 @@
         <v>-5000</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -602,7 +667,7 @@
       </c>
       <c r="C17" s="2"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -613,6 +678,162 @@
       <c r="C19">
         <f>SUM(C8:C18)</f>
         <v>27500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E732C081-0943-764F-901E-A175E9B03FB4}">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="29.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2">
+        <v>261500</v>
+      </c>
+      <c r="C2">
+        <v>313800</v>
+      </c>
+      <c r="D2">
+        <v>156900</v>
+      </c>
+      <c r="E2">
+        <v>287650</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>384000</v>
+      </c>
+      <c r="C3">
+        <v>436300</v>
+      </c>
+      <c r="D3">
+        <v>218150</v>
+      </c>
+      <c r="E3">
+        <v>410150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1">
+        <v>329500</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8">
+        <v>4050</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9">
+        <f>B7*B8</f>
+        <v>16200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="1">
+        <f>C2</f>
+        <v>313800</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11">
+        <f>B6-B10</f>
+        <v>15700</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="4">
+        <f>ROUNDUP(B11/2500,0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13">
+        <f>B12*0.02</f>
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14">
+        <f>B13*B9</f>
+        <v>2268</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="5">
+        <f>B9-B14</f>
+        <v>13932</v>
       </c>
     </row>
   </sheetData>

--- a/Tests.xlsx
+++ b/Tests.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Desktop/R_TaxProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7740362E-6C47-914B-A9CA-D0281BB0438B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D5BCC7E-6B4B-344C-B2A8-BFDFF05EFA1F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19900" yWindow="3940" windowWidth="30380" windowHeight="18680" activeTab="1" xr2:uid="{3006BEA8-C5A1-5242-93AC-D1E8609A8B5E}"/>
+    <workbookView xWindow="-30500" yWindow="8300" windowWidth="30380" windowHeight="18680" activeTab="2" xr2:uid="{3006BEA8-C5A1-5242-93AC-D1E8609A8B5E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Exemption" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="55">
   <si>
     <t>AGI</t>
   </si>
@@ -122,13 +123,91 @@
   </si>
   <si>
     <t>line 9</t>
+  </si>
+  <si>
+    <t>Taxable Income - Line 43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qualified Div - </t>
+  </si>
+  <si>
+    <t>Smaller of LTCap Gain</t>
+  </si>
+  <si>
+    <t>Add line 2 &amp; 3</t>
+  </si>
+  <si>
+    <t>Skip</t>
+  </si>
+  <si>
+    <t>Subtract line 5 from 4</t>
+  </si>
+  <si>
+    <t>Subtract line 6 from 1</t>
+  </si>
+  <si>
+    <t>Enter Applicable rate</t>
+  </si>
+  <si>
+    <t>S, MFS</t>
+  </si>
+  <si>
+    <t>Qualified Dividends and Capital Gain WS - 2017</t>
+  </si>
+  <si>
+    <t>Smaller of 1 or 8</t>
+  </si>
+  <si>
+    <t>Smaller of 7 or 9</t>
+  </si>
+  <si>
+    <t>Subtract 10 from 9, taxed at 0%</t>
+  </si>
+  <si>
+    <t>Amount from line 11</t>
+  </si>
+  <si>
+    <t>Subtract line 13 from 12</t>
+  </si>
+  <si>
+    <t>Smaller of 1 or 6</t>
+  </si>
+  <si>
+    <t>Enter applicable rate</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Smaller of 1 or 15</t>
+  </si>
+  <si>
+    <t>Add 7 and 11</t>
+  </si>
+  <si>
+    <t>Subtract 17 from 16</t>
+  </si>
+  <si>
+    <t>Smaller of line 14 or 18</t>
+  </si>
+  <si>
+    <t>Tax rate 15%</t>
+  </si>
+  <si>
+    <t>Add line 11 and 19</t>
+  </si>
+  <si>
+    <t>Subtract 21 from line 12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -141,6 +220,13 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -181,18 +267,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -689,7 +787,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E732C081-0943-764F-901E-A175E9B03FB4}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
@@ -839,4 +937,361 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1201843-79BB-0E40-808C-A86429D2E4D2}">
+  <dimension ref="A1:H29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="28.6640625" customWidth="1"/>
+    <col min="2" max="2" width="38.5" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="8">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="9">
+        <v>78000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="8">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="9">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="8">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="9">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="8">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="7">
+        <f>C4+C5</f>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="8">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="7">
+        <f>C6-C7</f>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="8">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="7">
+        <f>C3-C8</f>
+        <v>68000</v>
+      </c>
+      <c r="E9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="8">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="7">
+        <f>F10</f>
+        <v>75900</v>
+      </c>
+      <c r="E10">
+        <v>37950</v>
+      </c>
+      <c r="F10">
+        <v>75900</v>
+      </c>
+      <c r="G10">
+        <v>50800</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="8">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="7">
+        <f>IF(C10&lt;C3,C10,C3)</f>
+        <v>75900</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="8">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="7">
+        <f>IF(C11&lt;C9,C11,C9)</f>
+        <v>68000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="8">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="7">
+        <f>C11-C12</f>
+        <v>7900</v>
+      </c>
+      <c r="D13" s="11">
+        <f>C3-C13</f>
+        <v>70100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="8">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="10">
+        <f>IF(C8&lt;C3,C8,C3)</f>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="8">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="7">
+        <f>C13</f>
+        <v>7900</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="8">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="7">
+        <f>C14-C15</f>
+        <v>2100</v>
+      </c>
+      <c r="E16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="8">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="7">
+        <f>F17</f>
+        <v>470700</v>
+      </c>
+      <c r="E17">
+        <v>418400</v>
+      </c>
+      <c r="F17">
+        <v>470700</v>
+      </c>
+      <c r="G17">
+        <v>444550</v>
+      </c>
+      <c r="H17">
+        <v>235350</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="8">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="7">
+        <f>IF(C17&lt;C3,C17,C3)</f>
+        <v>78000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="8">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="7">
+        <f>C13+C9</f>
+        <v>75900</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="8">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="7">
+        <f>C18-C19</f>
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="8">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="7">
+        <f>IF(C20&lt;C16,C20,C16)</f>
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="8">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="7">
+        <f>C21*0.15</f>
+        <v>315</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="8">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="7">
+        <f>C21+C13</f>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="8">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="11">
+        <f>C14-C23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="8">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="6">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Tests.xlsx
+++ b/Tests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Desktop/R_TaxProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D5BCC7E-6B4B-344C-B2A8-BFDFF05EFA1F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD9D9D3-6271-4B4F-ADA0-033A7C386CCD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30500" yWindow="8300" windowWidth="30380" windowHeight="18680" activeTab="2" xr2:uid="{3006BEA8-C5A1-5242-93AC-D1E8609A8B5E}"/>
+    <workbookView xWindow="-20080" yWindow="1100" windowWidth="19960" windowHeight="20020" activeTab="2" xr2:uid="{3006BEA8-C5A1-5242-93AC-D1E8609A8B5E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -944,7 +944,7 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -952,7 +952,7 @@
     <col min="1" max="1" width="28.6640625" customWidth="1"/>
     <col min="2" max="2" width="38.5" customWidth="1"/>
     <col min="3" max="3" width="13.5" customWidth="1"/>
-    <col min="4" max="4" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -968,7 +968,7 @@
         <v>30</v>
       </c>
       <c r="C3" s="9">
-        <v>78000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1037,7 +1037,7 @@
       </c>
       <c r="C9" s="7">
         <f>C3-C8</f>
-        <v>68000</v>
+        <v>490000</v>
       </c>
       <c r="E9" t="s">
         <v>38</v>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="C12" s="7">
         <f>IF(C11&lt;C9,C11,C9)</f>
-        <v>68000</v>
+        <v>75900</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1103,11 +1103,11 @@
       </c>
       <c r="C13" s="7">
         <f>C11-C12</f>
-        <v>7900</v>
+        <v>0</v>
       </c>
       <c r="D13" s="11">
         <f>C3-C13</f>
-        <v>70100</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="C15" s="7">
         <f>C13</f>
-        <v>7900</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1143,7 +1143,7 @@
       </c>
       <c r="C16" s="7">
         <f>C14-C15</f>
-        <v>2100</v>
+        <v>10000</v>
       </c>
       <c r="E16" t="s">
         <v>47</v>
@@ -1191,7 +1191,7 @@
       </c>
       <c r="C18" s="7">
         <f>IF(C17&lt;C3,C17,C3)</f>
-        <v>78000</v>
+        <v>470700</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="C19" s="7">
         <f>C13+C9</f>
-        <v>75900</v>
+        <v>490000</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1214,8 +1214,8 @@
         <v>50</v>
       </c>
       <c r="C20" s="7">
-        <f>C18-C19</f>
-        <v>2100</v>
+        <f>IF(C18-C19&gt;0,C18-C19,0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1227,7 +1227,7 @@
       </c>
       <c r="C21" s="7">
         <f>IF(C20&lt;C16,C20,C16)</f>
-        <v>2100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1239,7 +1239,7 @@
       </c>
       <c r="C22" s="7">
         <f>C21*0.15</f>
-        <v>315</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="C23" s="7">
         <f>C21+C13</f>
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="C24" s="11">
         <f>C14-C23</f>
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="25" spans="1:8">
